--- a/result/Q2_2_result.xlsx
+++ b/result/Q2_2_result.xlsx
@@ -590,7 +590,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -599,22 +599,22 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>8</v>
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
         <v>3</v>
@@ -665,16 +665,16 @@
         <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD2" t="n">
         <v>8</v>
@@ -683,81 +683,81 @@
         <v>3</v>
       </c>
       <c r="AF2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
       </c>
       <c r="AM2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AR2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AS2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>8</v>
@@ -766,67 +766,67 @@
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA3" t="n">
         <v>5</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
@@ -835,153 +835,153 @@
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
         <v>5</v>
       </c>
       <c r="AR3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>4</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>5</v>
@@ -990,120 +990,120 @@
         <v>7</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AL4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AM4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AU4" t="n">
         <v>2</v>
       </c>
       <c r="AV4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW4" t="n">
         <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U5" t="n">
         <v>7</v>
@@ -1112,85 +1112,85 @@
         <v>7</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC5" t="n">
         <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AK5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AM5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN5" t="n">
         <v>1</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AP5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR5" t="n">
         <v>4</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AT5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1198,431 +1198,431 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="n">
         <v>6</v>
       </c>
       <c r="Z6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
         <v>5</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
         <v>7</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AL6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
         <v>1</v>
       </c>
       <c r="AO6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
       </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
         <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V7" t="n">
         <v>5</v>
       </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC7" t="n">
         <v>3</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AM7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="n">
         <v>5</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
         <v>4</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AK8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP8" t="n">
         <v>2</v>
@@ -1631,624 +1631,624 @@
         <v>8</v>
       </c>
       <c r="AR8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
       </c>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
         <v>5</v>
       </c>
       <c r="Y9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
         <v>3</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
         <v>8</v>
       </c>
       <c r="AL9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AM9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
         <v>6</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AR9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
         <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
         <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA10" t="n">
         <v>4</v>
       </c>
       <c r="AB10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
       </c>
       <c r="AM10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW10" t="n">
         <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N11" t="n">
         <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U11" t="n">
         <v>7</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC11" t="n">
         <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL11" t="n">
         <v>1</v>
       </c>
       <c r="AM11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AP11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR11" t="n">
         <v>4</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>5</v>
       </c>
       <c r="AV11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V12" t="n">
         <v>5</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
         <v>5</v>
       </c>
       <c r="Z12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AS12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>6</v>
@@ -2257,33 +2257,33 @@
         <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>8</v>
@@ -2292,76 +2292,76 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AF13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>5</v>
@@ -2370,245 +2370,245 @@
         <v>6</v>
       </c>
       <c r="AK13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL13" t="n">
         <v>8</v>
       </c>
       <c r="AM13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N14" t="n">
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
         <v>7</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
         <v>3</v>
       </c>
       <c r="AM14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AR14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW14" t="n">
         <v>8</v>
       </c>
       <c r="AX14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
         <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2617,103 +2617,103 @@
         <v>8</v>
       </c>
       <c r="R15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
       </c>
       <c r="Z15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB15" t="n">
         <v>7</v>
       </c>
       <c r="AC15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
         <v>6</v>
       </c>
       <c r="AP15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AR15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AS15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AT15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV15" t="n">
         <v>1</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2721,329 +2721,329 @@
         <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W16" t="n">
         <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
         <v>2</v>
       </c>
       <c r="AH16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ16" t="n">
         <v>3</v>
       </c>
       <c r="AK16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AL16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM16" t="n">
         <v>8</v>
       </c>
       <c r="AN16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AO16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP16" t="n">
         <v>6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AS16" t="n">
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z17" t="n">
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
         <v>4</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AL17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AP17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AR17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
@@ -3052,720 +3052,720 @@
         <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>7</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
         <v>2</v>
       </c>
       <c r="Z18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AH18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AL18" t="n">
         <v>5</v>
       </c>
       <c r="AM18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AN18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AP18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AR18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AU18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
         <v>6</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK19" t="n">
         <v>5</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
         <v>8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT19" t="n">
         <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W20" t="n">
         <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AB20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AN20" t="n">
         <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP20" t="n">
         <v>6</v>
       </c>
       <c r="AQ20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>1</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA21" t="n">
         <v>2</v>
       </c>
       <c r="AB21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
         <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG21" t="n">
         <v>8</v>
       </c>
       <c r="AH21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL21" t="n">
         <v>5</v>
       </c>
       <c r="AM21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS21" t="n">
         <v>4</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N22" t="n">
         <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI22" t="n">
         <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN22" t="n">
         <v>7</v>
       </c>
       <c r="AO22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
         <v>5</v>
@@ -3774,466 +3774,466 @@
         <v>8</v>
       </c>
       <c r="AW22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
         <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB23" t="n">
         <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>6</v>
       </c>
       <c r="AF23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AH23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
         <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AK23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AM23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV23" t="n">
         <v>7</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
       </c>
       <c r="W24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Y24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA24" t="n">
         <v>5</v>
       </c>
       <c r="AB24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC24" t="n">
         <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AL24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AP24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AR24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
         <v>4</v>
       </c>
       <c r="P25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
         <v>6</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U25" t="n">
         <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W25" t="n">
         <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y25" t="n">
         <v>5</v>
       </c>
       <c r="Z25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AA25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AP25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AU25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -4424,16 +4424,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4460,34 +4460,34 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -4514,46 +4514,46 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
@@ -4561,13 +4561,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -4588,49 +4588,49 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -4642,40 +4642,40 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -4687,39 +4687,39 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -4743,13 +4743,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -4758,22 +4758,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>1</v>
@@ -4800,13 +4800,13 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -4815,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
@@ -4830,19 +4830,19 @@
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
         <v>1</v>
@@ -4851,16 +4851,16 @@
         <v>1</v>
       </c>
       <c r="AU4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4868,16 +4868,16 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -4886,52 +4886,52 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -4976,16 +4976,16 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
@@ -4994,10 +4994,10 @@
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -5006,30 +5006,30 @@
         <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
         <v>1</v>
       </c>
       <c r="AX5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -5047,16 +5047,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -5065,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -5089,55 +5089,55 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" t="n">
         <v>1</v>
       </c>
       <c r="AL6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>1</v>
       </c>
       <c r="AO6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -5158,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6" t="n">
         <v>0</v>
@@ -5172,28 +5172,28 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -5202,34 +5202,34 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>1</v>
@@ -5247,10 +5247,10 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>1</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" t="n">
         <v>1</v>
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
         <v>0</v>
@@ -5324,25 +5324,25 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -5351,43 +5351,43 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -5396,13 +5396,13 @@
         <v>1</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -5414,16 +5414,16 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
@@ -5444,19 +5444,19 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5482,16 +5482,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -5500,31 +5500,31 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -5551,16 +5551,16 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -5581,19 +5581,19 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="n">
         <v>1</v>
       </c>
       <c r="AM9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -5605,19 +5605,19 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9" t="n">
         <v>0</v>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5652,10 +5652,10 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -5664,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
@@ -5673,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -5688,28 +5688,28 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -5724,10 +5724,10 @@
         <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
         <v>1</v>
@@ -5760,19 +5760,19 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5780,10 +5780,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5801,34 +5801,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -5837,19 +5837,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -5870,46 +5870,46 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -5918,27 +5918,27 @@
         <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11" t="n">
         <v>1</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -5971,61 +5971,61 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
@@ -6040,13 +6040,13 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12" t="n">
         <v>0</v>
@@ -6061,19 +6061,19 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" t="n">
         <v>0</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -6105,19 +6105,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -6144,13 +6144,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>1</v>
@@ -6162,25 +6162,25 @@
         <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -6189,10 +6189,10 @@
         <v>1</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -6201,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" t="n">
         <v>1</v>
@@ -6213,19 +6213,19 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX13" t="n">
         <v>0</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -6242,25 +6242,25 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -6269,25 +6269,25 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -6305,19 +6305,19 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6326,16 +6326,16 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
         <v>1</v>
@@ -6350,37 +6350,37 @@
         <v>1</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" t="n">
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
         <v>1</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -6415,25 +6415,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>1</v>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -6466,25 +6466,25 @@
         <v>1</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
@@ -6496,19 +6496,19 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" t="n">
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -6517,10 +6517,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -6540,19 +6540,19 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -6582,25 +6582,25 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -6609,13 +6609,13 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -6627,19 +6627,19 @@
         <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
         <v>1</v>
@@ -6648,16 +6648,16 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" t="n">
         <v>1</v>
@@ -6675,13 +6675,13 @@
         <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX16" t="n">
         <v>0</v>
@@ -6689,19 +6689,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -6713,37 +6713,37 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -6755,22 +6755,22 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -6788,60 +6788,60 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" t="n">
         <v>1</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" t="n">
         <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
       </c>
       <c r="AU17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -6850,13 +6850,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -6868,10 +6868,10 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -6880,16 +6880,16 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -6907,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -6919,16 +6919,16 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
@@ -6940,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" t="n">
         <v>1</v>
@@ -6970,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -6982,13 +6982,13 @@
         <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -6999,31 +6999,31 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -7065,19 +7065,19 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -7089,46 +7089,46 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -7137,10 +7137,10 @@
         <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -7166,31 +7166,31 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>1</v>
@@ -7220,19 +7220,19 @@
         <v>1</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>1</v>
       </c>
       <c r="AB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -7241,16 +7241,16 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" t="n">
         <v>1</v>
@@ -7259,10 +7259,10 @@
         <v>1</v>
       </c>
       <c r="AM20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -7271,28 +7271,28 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW20" t="n">
         <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7300,19 +7300,19 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -7330,16 +7330,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -7348,19 +7348,19 @@
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -7369,16 +7369,16 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7387,10 +7387,10 @@
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -7399,16 +7399,16 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>1</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -7435,30 +7435,30 @@
         <v>1</v>
       </c>
       <c r="AU21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
         <v>1</v>
       </c>
       <c r="AX21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -7470,10 +7470,10 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -7482,13 +7482,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
@@ -7500,13 +7500,13 @@
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>1</v>
@@ -7515,10 +7515,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>1</v>
@@ -7527,19 +7527,19 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
@@ -7548,13 +7548,13 @@
         <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22" t="n">
         <v>1</v>
@@ -7566,16 +7566,16 @@
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO22" t="n">
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -7587,13 +7587,13 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
         <v>1</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX22" t="n">
         <v>0</v>
@@ -7601,28 +7601,28 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -7637,13 +7637,13 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -7655,28 +7655,28 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -7685,28 +7685,28 @@
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" t="n">
         <v>1</v>
@@ -7718,10 +7718,10 @@
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23" t="n">
         <v>1</v>
@@ -7730,13 +7730,13 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX23" t="n">
         <v>0</v>
@@ -7753,85 +7753,85 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -7843,13 +7843,13 @@
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
         <v>1</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
         <v>0</v>
@@ -7867,16 +7867,16 @@
         <v>1</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24" t="n">
         <v>1</v>
       </c>
       <c r="AO24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
         <v>0</v>
@@ -7885,10 +7885,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX24" t="n">
         <v>0</v>
@@ -7905,16 +7905,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -7923,16 +7923,16 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -7962,22 +7962,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -7998,10 +7998,10 @@
         <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -8013,19 +8013,19 @@
         <v>1</v>
       </c>
       <c r="AK25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" t="n">
         <v>1</v>
@@ -8034,10 +8034,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
@@ -8046,10 +8046,10 @@
         <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX25" t="n">
         <v>0</v>
@@ -8196,7 +8196,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>342313.2281341128</v>
+        <v>10000000000</v>
       </c>
     </row>
   </sheetData>
@@ -8230,122 +8230,122 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>40009.50361494798</v>
+        <v>28420.70115500482</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22585.83748622222</v>
+        <v>720.3559428635926</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7489.314077332825</v>
+        <v>-27215.84255710096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-14364.90510148031</v>
+        <v>-55189.91151100258</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21137.81333211263</v>
+        <v>-83163.14982857982</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-42537.49589032197</v>
+        <v>-111173.7705746385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-54107.38092877602</v>
+        <v>-139156.2148404341</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-71046.0507733548</v>
+        <v>-167155.4948599326</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-91736.60608356743</v>
+        <v>-195150.5237578112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-102855.0735701497</v>
+        <v>-223202.9778381824</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-120010.9106293674</v>
+        <v>-251286.4533827503</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-139081.0966724588</v>
+        <v>-279157.4479726015</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-156095.2540569422</v>
+        <v>-307214.2296795711</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-172162.0024633104</v>
+        <v>-335146.5666248517</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-186392.5977028366</v>
+        <v>-363057.8911144237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-199675.0736263432</v>
+        <v>-390910.1428393857</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-211099.6201984346</v>
+        <v>-418772.0189962389</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-221800.2160366508</v>
+        <v>-446766.1809650251</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-237525.2403403975</v>
+        <v>-474780.5249742722</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-250387.6887673172</v>
+        <v>-502664.1110687487</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-265192.4222270526</v>
+        <v>-530492.2620748829</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-280875.7441367359</v>
+        <v>-558296.6642245195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-293914.7542901296</v>
+        <v>-586156.2143879755</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>59668.99866640981</v>
+        <v>-613819.2890699458</v>
       </c>
     </row>
   </sheetData>
